--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/R Systems International Ltd/Pruned_Excel/Semi_Final/R Systems International Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/R Systems International Ltd/Pruned_Excel/Semi_Final/R Systems International Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="112">
   <si>
     <t>Balance Sheet of R Systems International(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Dec 04</t>
-  </si>
-  <si>
-    <t>Dec 05</t>
-  </si>
-  <si>
-    <t>Dec 06</t>
-  </si>
-  <si>
-    <t>Dec 07</t>
-  </si>
-  <si>
-    <t>Dec 08</t>
-  </si>
-  <si>
-    <t>Dec 09</t>
-  </si>
-  <si>
-    <t>Dec 10</t>
-  </si>
-  <si>
-    <t>Dec 11</t>
-  </si>
-  <si>
-    <t>Dec 12</t>
-  </si>
-  <si>
-    <t>Dec 13</t>
-  </si>
-  <si>
-    <t>Dec 14</t>
-  </si>
-  <si>
-    <t>Dec 15</t>
-  </si>
-  <si>
-    <t>Dec 16</t>
-  </si>
-  <si>
-    <t>Dec 17</t>
-  </si>
-  <si>
-    <t>Dec 18</t>
-  </si>
-  <si>
-    <t>Dec 19</t>
-  </si>
-  <si>
-    <t>Dec 20</t>
-  </si>
-  <si>
-    <t>Dec 21</t>
-  </si>
-  <si>
-    <t>Dec 22</t>
-  </si>
-  <si>
-    <t>Dec 23</t>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Cash Flow of R Systems International(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of R Systems International(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,46 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
     <t>09</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>03</t>
@@ -744,13 +711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +757,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>5.14</v>
-      </c>
-      <c r="C2">
-        <v>55.51</v>
       </c>
       <c r="D2">
         <v>55.51</v>
       </c>
       <c r="E2">
+        <v>55.51</v>
+      </c>
+      <c r="F2">
         <v>60.64</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14.09</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15.67</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>92.81</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20.35</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>22.97</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>56.42</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>36.38</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>92.81</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>5.14</v>
-      </c>
-      <c r="C3">
-        <v>64.70999999999999</v>
       </c>
       <c r="D3">
         <v>64.70999999999999</v>
       </c>
       <c r="E3">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="F3">
         <v>69.84999999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11.43</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>24.15</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100.81</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.7</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>25.62</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>56.62</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>44.19</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>100.81</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>13.55</v>
-      </c>
-      <c r="C4">
-        <v>126.53</v>
       </c>
       <c r="D4">
         <v>126.53</v>
       </c>
       <c r="E4">
+        <v>126.53</v>
+      </c>
+      <c r="F4">
         <v>140.07</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.74</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>33.37</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>180.6</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>33.78</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>38.64</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>83.63</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>96.97</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>180.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>13.51</v>
-      </c>
-      <c r="C5">
-        <v>147.87</v>
       </c>
       <c r="D5">
         <v>147.87</v>
       </c>
       <c r="E5">
+        <v>147.87</v>
+      </c>
+      <c r="F5">
         <v>161.38</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>11.55</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>33.41</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>200.2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>33.53</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>41.96</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>94.02</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>106.18</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>200.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>13.36</v>
-      </c>
-      <c r="C6">
-        <v>167.48</v>
       </c>
       <c r="D6">
         <v>167.48</v>
       </c>
       <c r="E6">
+        <v>167.48</v>
+      </c>
+      <c r="F6">
         <v>180.85</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>13.07</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>49.58</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>234.91</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>35.89</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>41.8</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>102.08</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>132.83</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>234.91</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>12.24</v>
-      </c>
-      <c r="C7">
-        <v>164.48</v>
       </c>
       <c r="D7">
         <v>164.48</v>
       </c>
       <c r="E7">
+        <v>164.48</v>
+      </c>
+      <c r="F7">
         <v>176.73</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.41</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>47.48</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>229.03</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>30.16</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>44.69</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>80.2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>148.84</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>229.03</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>12.24</v>
-      </c>
-      <c r="C8">
-        <v>177.79</v>
       </c>
       <c r="D8">
         <v>177.79</v>
       </c>
       <c r="E8">
+        <v>177.79</v>
+      </c>
+      <c r="F8">
         <v>190.03</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7.48</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>34.92</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>230.03</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>26.18</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>38.94</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>78.64</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>151.39</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>230.03</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>12.24</v>
-      </c>
-      <c r="C9">
-        <v>179.11</v>
       </c>
       <c r="D9">
         <v>179.11</v>
       </c>
       <c r="E9">
+        <v>179.11</v>
+      </c>
+      <c r="F9">
         <v>191.36</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>21.7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>49.21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>254.48</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>30.28</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>32.76</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>139.22</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>115.26</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>254.48</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>12.45</v>
-      </c>
-      <c r="C10">
-        <v>167.79</v>
       </c>
       <c r="D10">
         <v>167.79</v>
       </c>
       <c r="E10">
+        <v>167.79</v>
+      </c>
+      <c r="F10">
         <v>180.24</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>13.02</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>51.57</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>239.93</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>27.82</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>30.46</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>128.13</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>111.8</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>239.93</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>12.59</v>
-      </c>
-      <c r="C11">
-        <v>175.46</v>
       </c>
       <c r="D11">
         <v>175.46</v>
       </c>
       <c r="E11">
+        <v>175.46</v>
+      </c>
+      <c r="F11">
         <v>188.05</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11.33</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>58.9</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>255.12</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>30.85</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>34.61</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>133.94</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>121.19</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>255.12</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>12.67</v>
-      </c>
-      <c r="C12">
-        <v>162.41</v>
       </c>
       <c r="D12">
         <v>162.41</v>
       </c>
       <c r="E12">
+        <v>162.41</v>
+      </c>
+      <c r="F12">
         <v>175.08</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>53.67</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>107.98</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>293.69</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>31.08</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>35.47</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>122.46</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>171.23</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>293.69</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>12.61</v>
-      </c>
-      <c r="C13">
-        <v>185.76</v>
       </c>
       <c r="D13">
         <v>185.76</v>
       </c>
       <c r="E13">
+        <v>185.76</v>
+      </c>
+      <c r="F13">
         <v>198.37</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14.01</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>43.07</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>249.8</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>23.18</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>23.71</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>153.28</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>96.52</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>249.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>12.31</v>
-      </c>
-      <c r="C14">
-        <v>208.03</v>
       </c>
       <c r="D14">
         <v>208.03</v>
       </c>
       <c r="E14">
+        <v>208.03</v>
+      </c>
+      <c r="F14">
         <v>220.35</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>11.77</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>39.59</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>272.05</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>24.64</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>27.81</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>157.35</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>114.7</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>272.05</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>12.32</v>
-      </c>
-      <c r="C15">
-        <v>234.63</v>
       </c>
       <c r="D15">
         <v>234.63</v>
       </c>
       <c r="E15">
+        <v>234.63</v>
+      </c>
+      <c r="F15">
         <v>246.95</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>37.88</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>50.84</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>308.71</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>25.85</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>28.77</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>146.89</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>161.82</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>308.71</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>12.33</v>
-      </c>
-      <c r="C16">
-        <v>257.23</v>
       </c>
       <c r="D16">
         <v>257.23</v>
       </c>
       <c r="E16">
+        <v>257.23</v>
+      </c>
+      <c r="F16">
         <v>269.55</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>41.34</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>54.58</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>336.98</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>24.83</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>28.9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>147.94</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>189.04</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>336.98</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>11.96</v>
-      </c>
-      <c r="C17">
-        <v>262.73</v>
       </c>
       <c r="D17">
         <v>262.73</v>
       </c>
       <c r="E17">
+        <v>262.73</v>
+      </c>
+      <c r="F17">
         <v>274.69</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>57.27</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>71.56999999999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>363.93</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>34.47</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>38.56</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>157.14</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>206.79</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>363.93</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>11.96</v>
-      </c>
-      <c r="C18">
-        <v>330.72</v>
       </c>
       <c r="D18">
         <v>330.72</v>
       </c>
       <c r="E18">
+        <v>330.72</v>
+      </c>
+      <c r="F18">
         <v>342.68</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>48.51</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>65.23999999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>463.16</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>72.39</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>74.81999999999999</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>195.31</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>267.85</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>463.16</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>11.83</v>
-      </c>
-      <c r="C19">
-        <v>342.13</v>
       </c>
       <c r="D19">
         <v>342.13</v>
       </c>
       <c r="E19">
+        <v>342.13</v>
+      </c>
+      <c r="F19">
         <v>353.96</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>43.68</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>66.43000000000001</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>475.34</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>76.34999999999999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>78.44</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>202.11</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>273.23</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>475.34</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>11.83</v>
-      </c>
-      <c r="C20">
-        <v>378.38</v>
       </c>
       <c r="D20">
         <v>378.38</v>
       </c>
       <c r="E20">
+        <v>378.38</v>
+      </c>
+      <c r="F20">
         <v>390.22</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>65.13</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>93.3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>564.17</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>108.74</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>113.9</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>249.81</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>314.36</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>564.17</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>11.83</v>
-      </c>
-      <c r="C21">
-        <v>470.93</v>
       </c>
       <c r="D21">
         <v>470.93</v>
       </c>
       <c r="E21">
+        <v>470.93</v>
+      </c>
+      <c r="F21">
         <v>482.77</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>149.48</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>240.32</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>806.0700000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>92.45</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>94.64</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>504.87</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>301.2</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>806.0700000000001</v>
       </c>
     </row>
@@ -1618,618 +1648,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2.1</v>
+      </c>
+      <c r="D2">
+        <v>11.86</v>
+      </c>
+      <c r="E2">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="F2">
+        <v>-3.71</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="I2">
+        <v>3.3</v>
+      </c>
+      <c r="J2">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>13.96</v>
+      </c>
+      <c r="D3">
+        <v>11.62</v>
+      </c>
+      <c r="E3">
+        <v>-5.35</v>
+      </c>
+      <c r="F3">
+        <v>-4.74</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.53</v>
+      </c>
+      <c r="I3">
+        <v>2.49</v>
+      </c>
+      <c r="J3">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>12.58</v>
+      </c>
+      <c r="D4">
+        <v>7.69</v>
+      </c>
+      <c r="E4">
+        <v>-21.32</v>
+      </c>
+      <c r="F4">
+        <v>56.57</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>42.94</v>
+      </c>
+      <c r="I4">
+        <v>4.01</v>
+      </c>
+      <c r="J4">
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>28.26</v>
+      </c>
+      <c r="D5">
+        <v>16.97</v>
+      </c>
+      <c r="E5">
+        <v>-15.03</v>
+      </c>
+      <c r="F5">
+        <v>-5.44</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-3.5</v>
+      </c>
+      <c r="I5">
+        <v>45.83</v>
+      </c>
+      <c r="J5">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>25.21</v>
+      </c>
+      <c r="D6">
+        <v>24.74</v>
+      </c>
+      <c r="E6">
+        <v>-16.9</v>
+      </c>
+      <c r="F6">
+        <v>-3.87</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.98</v>
+      </c>
+      <c r="I6">
+        <v>10.68</v>
+      </c>
+      <c r="J6">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D7">
+        <v>30.16</v>
+      </c>
+      <c r="E7">
+        <v>-12.44</v>
+      </c>
+      <c r="F7">
+        <v>-17.41</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.31</v>
+      </c>
+      <c r="I7">
+        <v>14.65</v>
+      </c>
+      <c r="J7">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>14.3</v>
+      </c>
+      <c r="D8">
+        <v>16.28</v>
+      </c>
+      <c r="E8">
+        <v>-2.06</v>
+      </c>
+      <c r="F8">
+        <v>-3.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10.92</v>
+      </c>
+      <c r="I8">
+        <v>14.97</v>
+      </c>
+      <c r="J8">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>7.9</v>
+      </c>
+      <c r="D9">
+        <v>23.49</v>
+      </c>
+      <c r="E9">
+        <v>-23.19</v>
+      </c>
+      <c r="F9">
+        <v>-0.76</v>
+      </c>
+      <c r="G9">
+        <v>0.46</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <v>25.99</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>30.73</v>
+      </c>
+      <c r="D10">
+        <v>37.45</v>
+      </c>
+      <c r="E10">
+        <v>-12.24</v>
+      </c>
+      <c r="F10">
+        <v>-25.92</v>
+      </c>
+      <c r="G10">
+        <v>0.48</v>
+      </c>
+      <c r="H10">
+        <v>-0.23</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>54.15</v>
+      </c>
+      <c r="D11">
+        <v>21.03</v>
+      </c>
+      <c r="E11">
+        <v>-2.93</v>
+      </c>
+      <c r="F11">
+        <v>-21.9</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>-3.55</v>
+      </c>
+      <c r="I11">
+        <v>25.77</v>
+      </c>
+      <c r="J11">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>101.09</v>
+      </c>
+      <c r="D12">
+        <v>55.12</v>
+      </c>
+      <c r="E12">
+        <v>39.27</v>
+      </c>
+      <c r="F12">
+        <v>-52.81</v>
+      </c>
+      <c r="G12">
+        <v>-0.14</v>
+      </c>
+      <c r="H12">
+        <v>41.45</v>
+      </c>
+      <c r="I12">
+        <v>22.22</v>
+      </c>
+      <c r="J12">
+        <v>63.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>117.8</v>
+      </c>
+      <c r="D13">
+        <v>24.91</v>
+      </c>
+      <c r="E13">
+        <v>38.89</v>
+      </c>
+      <c r="F13">
+        <v>-112.93</v>
+      </c>
+      <c r="G13">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H13">
+        <v>-49.06</v>
+      </c>
+      <c r="I13">
+        <v>63.67</v>
+      </c>
+      <c r="J13">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>61.38</v>
+      </c>
+      <c r="D14">
+        <v>32.63</v>
+      </c>
+      <c r="E14">
+        <v>11.67</v>
+      </c>
+      <c r="F14">
+        <v>-19.46</v>
+      </c>
+      <c r="G14">
+        <v>0.03</v>
+      </c>
+      <c r="H14">
+        <v>24.88</v>
+      </c>
+      <c r="I14">
+        <v>14.61</v>
+      </c>
+      <c r="J14">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>22.81</v>
+      </c>
+      <c r="D15">
+        <v>29.92</v>
+      </c>
+      <c r="E15">
+        <v>-35.1</v>
+      </c>
+      <c r="F15">
+        <v>-0.53</v>
+      </c>
+      <c r="G15">
+        <v>-0.09</v>
+      </c>
+      <c r="H15">
+        <v>-5.79</v>
+      </c>
+      <c r="I15">
+        <v>40.66</v>
+      </c>
+      <c r="J15">
+        <v>34.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>31.01</v>
+      </c>
+      <c r="D16">
+        <v>22.99</v>
+      </c>
+      <c r="E16">
+        <v>-19.08</v>
+      </c>
+      <c r="F16">
+        <v>-8.75</v>
+      </c>
+      <c r="G16">
+        <v>-0.01</v>
+      </c>
+      <c r="H16">
+        <v>-4.85</v>
+      </c>
+      <c r="I16">
+        <v>34.87</v>
+      </c>
+      <c r="J16">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>51.5</v>
+      </c>
+      <c r="D17">
+        <v>50.93</v>
+      </c>
+      <c r="E17">
+        <v>9.26</v>
+      </c>
+      <c r="F17">
+        <v>-45.8</v>
+      </c>
+      <c r="G17">
+        <v>0.31</v>
+      </c>
+      <c r="H17">
+        <v>14.69</v>
+      </c>
+      <c r="I17">
+        <v>30.02</v>
+      </c>
+      <c r="J17">
+        <v>44.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="D18">
+        <v>77.81999999999999</v>
+      </c>
+      <c r="E18">
+        <v>-50.99</v>
+      </c>
+      <c r="F18">
+        <v>-0.16</v>
+      </c>
+      <c r="G18">
+        <v>-0.2</v>
+      </c>
+      <c r="H18">
+        <v>26.48</v>
+      </c>
+      <c r="I18">
+        <v>44.71</v>
+      </c>
+      <c r="J18">
+        <v>71.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>115.75</v>
+      </c>
+      <c r="D19">
+        <v>57.81</v>
+      </c>
+      <c r="E19">
+        <v>41.95</v>
+      </c>
+      <c r="F19">
+        <v>-108.95</v>
+      </c>
+      <c r="G19">
+        <v>-0.16</v>
+      </c>
+      <c r="H19">
+        <v>-9.34</v>
+      </c>
+      <c r="I19">
+        <v>71.55</v>
+      </c>
+      <c r="J19">
+        <v>62.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>112.71</v>
+      </c>
+      <c r="D20">
+        <v>87.06</v>
+      </c>
+      <c r="E20">
+        <v>10.08</v>
+      </c>
+      <c r="F20">
+        <v>-77.81</v>
+      </c>
+      <c r="G20">
+        <v>1.04</v>
+      </c>
+      <c r="H20">
+        <v>20.36</v>
+      </c>
+      <c r="I20">
+        <v>62.21</v>
+      </c>
+      <c r="J20">
+        <v>82.56999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>2.1</v>
-      </c>
-      <c r="C2">
-        <v>11.86</v>
-      </c>
-      <c r="D2">
-        <v>-8.960000000000001</v>
-      </c>
-      <c r="E2">
-        <v>-3.71</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="H2">
-        <v>3.3</v>
-      </c>
-      <c r="I2">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>13.96</v>
-      </c>
-      <c r="C3">
-        <v>11.62</v>
-      </c>
-      <c r="D3">
-        <v>-5.35</v>
-      </c>
-      <c r="E3">
-        <v>-4.74</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1.53</v>
-      </c>
-      <c r="H3">
-        <v>2.49</v>
-      </c>
-      <c r="I3">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>12.58</v>
-      </c>
-      <c r="C4">
-        <v>7.69</v>
-      </c>
-      <c r="D4">
-        <v>-21.32</v>
-      </c>
-      <c r="E4">
-        <v>56.57</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>42.94</v>
-      </c>
-      <c r="H4">
-        <v>4.01</v>
-      </c>
-      <c r="I4">
-        <v>46.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>28.26</v>
-      </c>
-      <c r="C5">
-        <v>16.97</v>
-      </c>
-      <c r="D5">
-        <v>-15.03</v>
-      </c>
-      <c r="E5">
-        <v>-5.44</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-3.5</v>
-      </c>
-      <c r="H5">
-        <v>45.83</v>
-      </c>
-      <c r="I5">
-        <v>42.32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>25.21</v>
-      </c>
-      <c r="C6">
-        <v>24.74</v>
-      </c>
-      <c r="D6">
-        <v>-16.9</v>
-      </c>
-      <c r="E6">
-        <v>-3.87</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3.98</v>
-      </c>
-      <c r="H6">
-        <v>10.68</v>
-      </c>
-      <c r="I6">
-        <v>14.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="C7">
-        <v>30.16</v>
-      </c>
-      <c r="D7">
-        <v>-12.44</v>
-      </c>
-      <c r="E7">
-        <v>-17.41</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.31</v>
-      </c>
-      <c r="H7">
-        <v>14.65</v>
-      </c>
-      <c r="I7">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>14.3</v>
-      </c>
-      <c r="C8">
-        <v>16.28</v>
-      </c>
-      <c r="D8">
-        <v>-2.06</v>
-      </c>
-      <c r="E8">
-        <v>-3.3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>10.92</v>
-      </c>
-      <c r="H8">
-        <v>14.97</v>
-      </c>
-      <c r="I8">
-        <v>25.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>7.9</v>
-      </c>
-      <c r="C9">
-        <v>23.49</v>
-      </c>
-      <c r="D9">
-        <v>-23.19</v>
-      </c>
-      <c r="E9">
-        <v>-0.76</v>
-      </c>
-      <c r="F9">
-        <v>0.46</v>
-      </c>
-      <c r="G9">
-        <v>0.01</v>
-      </c>
-      <c r="H9">
-        <v>25.99</v>
-      </c>
-      <c r="I9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>30.73</v>
-      </c>
-      <c r="C10">
-        <v>37.45</v>
-      </c>
-      <c r="D10">
-        <v>-12.24</v>
-      </c>
-      <c r="E10">
-        <v>-25.92</v>
-      </c>
-      <c r="F10">
-        <v>0.48</v>
-      </c>
-      <c r="G10">
-        <v>-0.23</v>
-      </c>
-      <c r="H10">
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <v>25.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>54.15</v>
-      </c>
-      <c r="C11">
-        <v>21.03</v>
-      </c>
-      <c r="D11">
-        <v>-2.93</v>
-      </c>
-      <c r="E11">
-        <v>-21.9</v>
-      </c>
-      <c r="F11">
-        <v>0.25</v>
-      </c>
-      <c r="G11">
-        <v>-3.55</v>
-      </c>
-      <c r="H11">
-        <v>25.77</v>
-      </c>
-      <c r="I11">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>101.09</v>
-      </c>
-      <c r="C12">
-        <v>55.12</v>
-      </c>
-      <c r="D12">
-        <v>39.27</v>
-      </c>
-      <c r="E12">
-        <v>-52.81</v>
-      </c>
-      <c r="F12">
-        <v>-0.14</v>
-      </c>
-      <c r="G12">
-        <v>41.45</v>
-      </c>
-      <c r="H12">
-        <v>22.22</v>
-      </c>
-      <c r="I12">
-        <v>63.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>117.8</v>
-      </c>
-      <c r="C13">
-        <v>24.91</v>
-      </c>
-      <c r="D13">
-        <v>38.89</v>
-      </c>
-      <c r="E13">
-        <v>-112.93</v>
-      </c>
-      <c r="F13">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G13">
-        <v>-49.06</v>
-      </c>
-      <c r="H13">
-        <v>63.67</v>
-      </c>
-      <c r="I13">
-        <v>14.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>61.38</v>
-      </c>
-      <c r="C14">
-        <v>32.63</v>
-      </c>
-      <c r="D14">
-        <v>11.67</v>
-      </c>
-      <c r="E14">
-        <v>-19.46</v>
-      </c>
-      <c r="F14">
-        <v>0.03</v>
-      </c>
-      <c r="G14">
-        <v>24.88</v>
-      </c>
-      <c r="H14">
-        <v>14.61</v>
-      </c>
-      <c r="I14">
-        <v>39.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>22.81</v>
-      </c>
-      <c r="C15">
-        <v>29.92</v>
-      </c>
-      <c r="D15">
-        <v>-35.1</v>
-      </c>
-      <c r="E15">
-        <v>-0.53</v>
-      </c>
-      <c r="F15">
-        <v>-0.09</v>
-      </c>
-      <c r="G15">
-        <v>-5.79</v>
-      </c>
-      <c r="H15">
-        <v>40.66</v>
-      </c>
-      <c r="I15">
-        <v>34.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>31.01</v>
-      </c>
-      <c r="C16">
-        <v>22.99</v>
-      </c>
-      <c r="D16">
-        <v>-19.08</v>
-      </c>
-      <c r="E16">
-        <v>-8.75</v>
-      </c>
-      <c r="F16">
-        <v>-0.01</v>
-      </c>
-      <c r="G16">
-        <v>-4.85</v>
-      </c>
-      <c r="H16">
-        <v>34.87</v>
-      </c>
-      <c r="I16">
-        <v>30.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>51.5</v>
-      </c>
-      <c r="C17">
-        <v>50.93</v>
-      </c>
-      <c r="D17">
-        <v>9.26</v>
-      </c>
-      <c r="E17">
-        <v>-45.8</v>
-      </c>
-      <c r="F17">
-        <v>0.31</v>
-      </c>
-      <c r="G17">
-        <v>14.69</v>
-      </c>
-      <c r="H17">
-        <v>30.02</v>
-      </c>
-      <c r="I17">
-        <v>44.71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="C18">
-        <v>77.81999999999999</v>
-      </c>
-      <c r="D18">
-        <v>-50.99</v>
-      </c>
-      <c r="E18">
-        <v>-0.16</v>
-      </c>
-      <c r="F18">
-        <v>-0.2</v>
-      </c>
-      <c r="G18">
-        <v>26.48</v>
-      </c>
-      <c r="H18">
-        <v>44.71</v>
-      </c>
-      <c r="I18">
-        <v>71.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>115.75</v>
-      </c>
-      <c r="C19">
-        <v>57.81</v>
-      </c>
-      <c r="D19">
-        <v>41.95</v>
-      </c>
-      <c r="E19">
-        <v>-108.95</v>
-      </c>
-      <c r="F19">
-        <v>-0.16</v>
-      </c>
-      <c r="G19">
-        <v>-9.34</v>
-      </c>
-      <c r="H19">
-        <v>71.55</v>
-      </c>
-      <c r="I19">
-        <v>62.21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>112.71</v>
-      </c>
-      <c r="C20">
-        <v>87.06</v>
-      </c>
-      <c r="D20">
-        <v>10.08</v>
-      </c>
-      <c r="E20">
-        <v>-77.81</v>
-      </c>
-      <c r="F20">
-        <v>1.04</v>
-      </c>
-      <c r="G20">
-        <v>20.36</v>
-      </c>
-      <c r="H20">
-        <v>62.21</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>173.46</v>
+      </c>
+      <c r="D21">
+        <v>176.83</v>
+      </c>
+      <c r="E21">
+        <v>-208.43</v>
+      </c>
+      <c r="F21">
+        <v>-31.7</v>
+      </c>
+      <c r="G21">
+        <v>0.19</v>
+      </c>
+      <c r="H21">
+        <v>-63.11</v>
+      </c>
+      <c r="I21">
         <v>82.56999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>173.46</v>
-      </c>
-      <c r="C21">
-        <v>176.83</v>
-      </c>
-      <c r="D21">
-        <v>-208.43</v>
-      </c>
-      <c r="E21">
-        <v>-31.7</v>
-      </c>
-      <c r="F21">
-        <v>0.19</v>
-      </c>
-      <c r="G21">
-        <v>-63.11</v>
-      </c>
-      <c r="H21">
-        <v>82.56999999999999</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>19.46</v>
       </c>
     </row>
@@ -2240,86 +2333,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>56.12</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>56.12</v>
@@ -2328,46 +2424,46 @@
         <v>56.12</v>
       </c>
       <c r="E2">
+        <v>56.12</v>
+      </c>
+      <c r="F2">
         <v>0.06</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>56.17</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>28.33</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.95</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.84</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>53.5</v>
-      </c>
-      <c r="M2">
-        <v>2.68</v>
       </c>
       <c r="N2">
         <v>2.68</v>
       </c>
       <c r="O2">
+        <v>2.68</v>
+      </c>
+      <c r="P2">
         <v>0.43</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.43</v>
-      </c>
-      <c r="R2">
-        <v>2.24</v>
       </c>
       <c r="S2">
         <v>2.24</v>
@@ -2376,18 +2472,21 @@
         <v>2.24</v>
       </c>
       <c r="U2">
-        <v>4.36</v>
+        <v>2.24</v>
       </c>
       <c r="V2">
         <v>4.36</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>81.27</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>81.27</v>
@@ -2396,66 +2495,69 @@
         <v>81.27</v>
       </c>
       <c r="E3">
+        <v>81.27</v>
+      </c>
+      <c r="F3">
         <v>-0.61</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>80.66</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.01</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>40.26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.73</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.17</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>19.84</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>66.67</v>
-      </c>
-      <c r="M3">
-        <v>13.99</v>
       </c>
       <c r="N3">
         <v>13.99</v>
       </c>
       <c r="O3">
+        <v>13.99</v>
+      </c>
+      <c r="P3">
         <v>0.63</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.58</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.48</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>12.51</v>
-      </c>
-      <c r="S3">
-        <v>12.74</v>
       </c>
       <c r="T3">
         <v>12.74</v>
       </c>
       <c r="U3">
-        <v>4.96</v>
+        <v>12.74</v>
       </c>
       <c r="V3">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>117.54</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>117.54</v>
@@ -2464,66 +2566,69 @@
         <v>117.54</v>
       </c>
       <c r="E4">
+        <v>117.54</v>
+      </c>
+      <c r="F4">
         <v>3.45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>120.99</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>66.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.43</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4.53</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>32.93</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>106.82</v>
-      </c>
-      <c r="M4">
-        <v>14.17</v>
       </c>
       <c r="N4">
         <v>14.17</v>
       </c>
       <c r="O4">
+        <v>14.17</v>
+      </c>
+      <c r="P4">
         <v>1.44</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.54</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.53</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>11.64</v>
-      </c>
-      <c r="S4">
-        <v>10.05</v>
       </c>
       <c r="T4">
         <v>10.05</v>
       </c>
       <c r="U4">
-        <v>7.42</v>
+        <v>10.05</v>
       </c>
       <c r="V4">
         <v>7.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>155.57</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>155.57</v>
@@ -2532,66 +2637,69 @@
         <v>155.57</v>
       </c>
       <c r="E5">
+        <v>155.57</v>
+      </c>
+      <c r="F5">
         <v>6.59</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>162.16</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>90.72</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.3</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5.34</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>35.41</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>134.43</v>
-      </c>
-      <c r="M5">
-        <v>27.73</v>
       </c>
       <c r="N5">
         <v>27.73</v>
       </c>
       <c r="O5">
+        <v>27.73</v>
+      </c>
+      <c r="P5">
         <v>2.58</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.76</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4.01</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>23.71</v>
-      </c>
-      <c r="S5">
-        <v>24.17</v>
       </c>
       <c r="T5">
         <v>24.17</v>
       </c>
       <c r="U5">
-        <v>17.89</v>
+        <v>24.17</v>
       </c>
       <c r="V5">
         <v>17.89</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>203.85</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>203.85</v>
@@ -2600,66 +2708,69 @@
         <v>203.85</v>
       </c>
       <c r="E6">
+        <v>203.85</v>
+      </c>
+      <c r="F6">
         <v>-2.79</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>201.06</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>122.22</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.13</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.63</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>46.92</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>175.9</v>
-      </c>
-      <c r="M6">
-        <v>25.17</v>
       </c>
       <c r="N6">
         <v>25.17</v>
       </c>
       <c r="O6">
+        <v>25.17</v>
+      </c>
+      <c r="P6">
         <v>1.44</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.76</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.49</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>23.68</v>
-      </c>
-      <c r="S6">
-        <v>23.65</v>
       </c>
       <c r="T6">
         <v>23.65</v>
       </c>
       <c r="U6">
-        <v>17.7</v>
+        <v>23.65</v>
       </c>
       <c r="V6">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>191.14</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>191.14</v>
@@ -2668,66 +2779,69 @@
         <v>191.14</v>
       </c>
       <c r="E7">
+        <v>191.14</v>
+      </c>
+      <c r="F7">
         <v>-18.62</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>172.52</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>114.97</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.17</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8.050000000000001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>40.26</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>163.45</v>
-      </c>
-      <c r="M7">
-        <v>9.08</v>
       </c>
       <c r="N7">
         <v>9.08</v>
       </c>
       <c r="O7">
+        <v>9.08</v>
+      </c>
+      <c r="P7">
         <v>2.05</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.42</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2.56</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>6.51</v>
-      </c>
-      <c r="S7">
-        <v>6.55</v>
       </c>
       <c r="T7">
         <v>6.55</v>
       </c>
       <c r="U7">
-        <v>5.35</v>
+        <v>6.55</v>
       </c>
       <c r="V7">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>178.6</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>178.6</v>
@@ -2736,66 +2850,69 @@
         <v>178.6</v>
       </c>
       <c r="E8">
+        <v>178.6</v>
+      </c>
+      <c r="F8">
         <v>6.98</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>185.57</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.88</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>117.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.04</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8.630000000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>39.46</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>172.4</v>
-      </c>
-      <c r="M8">
-        <v>13.18</v>
       </c>
       <c r="N8">
         <v>13.18</v>
       </c>
       <c r="O8">
+        <v>13.18</v>
+      </c>
+      <c r="P8">
         <v>1.86</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-4.31</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-2.45</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>15.63</v>
-      </c>
-      <c r="S8">
-        <v>16.75</v>
       </c>
       <c r="T8">
         <v>16.75</v>
       </c>
       <c r="U8">
-        <v>13.68</v>
+        <v>16.75</v>
       </c>
       <c r="V8">
         <v>13.68</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>191.69</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>191.69</v>
@@ -2804,46 +2921,46 @@
         <v>191.69</v>
       </c>
       <c r="E9">
+        <v>191.69</v>
+      </c>
+      <c r="F9">
         <v>5.99</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>197.68</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>130.06</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.43</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8.81</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>50.47</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>189.78</v>
-      </c>
-      <c r="M9">
-        <v>7.9</v>
       </c>
       <c r="N9">
         <v>7.9</v>
       </c>
       <c r="O9">
+        <v>7.9</v>
+      </c>
+      <c r="P9">
         <v>5.48</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-3.33</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.44</v>
-      </c>
-      <c r="R9">
-        <v>6.47</v>
       </c>
       <c r="S9">
         <v>6.47</v>
@@ -2852,18 +2969,21 @@
         <v>6.47</v>
       </c>
       <c r="U9">
+        <v>6.47</v>
+      </c>
+      <c r="V9">
         <v>5.25</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>5.19</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>228.93</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>228.93</v>
@@ -2872,46 +2992,46 @@
         <v>228.93</v>
       </c>
       <c r="E10">
+        <v>228.93</v>
+      </c>
+      <c r="F10">
         <v>4.22</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>233.15</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>150.31</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.27</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6.24</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>45.6</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>202.42</v>
-      </c>
-      <c r="M10">
-        <v>30.73</v>
       </c>
       <c r="N10">
         <v>30.73</v>
       </c>
       <c r="O10">
+        <v>30.73</v>
+      </c>
+      <c r="P10">
         <v>9.539999999999999</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.66</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>10.2</v>
-      </c>
-      <c r="R10">
-        <v>20.53</v>
       </c>
       <c r="S10">
         <v>20.53</v>
@@ -2920,18 +3040,21 @@
         <v>20.53</v>
       </c>
       <c r="U10">
-        <v>16.5</v>
+        <v>20.53</v>
       </c>
       <c r="V10">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>269.8</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>269.8</v>
@@ -2940,66 +3063,69 @@
         <v>269.8</v>
       </c>
       <c r="E11">
+        <v>269.8</v>
+      </c>
+      <c r="F11">
         <v>4.17</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>273.97</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>160.2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.28</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.78</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>54.56</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>219.82</v>
-      </c>
-      <c r="M11">
-        <v>54.15</v>
       </c>
       <c r="N11">
         <v>54.15</v>
       </c>
       <c r="O11">
+        <v>54.15</v>
+      </c>
+      <c r="P11">
         <v>15.34</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.14</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>13.97</v>
-      </c>
-      <c r="R11">
-        <v>40.18</v>
       </c>
       <c r="S11">
         <v>40.18</v>
       </c>
       <c r="T11">
+        <v>40.18</v>
+      </c>
+      <c r="U11">
         <v>36.55</v>
-      </c>
-      <c r="U11">
-        <v>2.9</v>
       </c>
       <c r="V11">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>291.08</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>291.08</v>
@@ -3008,66 +3134,69 @@
         <v>291.08</v>
       </c>
       <c r="E12">
+        <v>291.08</v>
+      </c>
+      <c r="F12">
         <v>13.48</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>304.57</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>178.14</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.43</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6.72</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>57.49</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>242.79</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>61.78</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>101.09</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>21.28</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.62</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>21.9</v>
-      </c>
-      <c r="R12">
-        <v>79.19</v>
       </c>
       <c r="S12">
         <v>79.19</v>
       </c>
       <c r="T12">
+        <v>79.19</v>
+      </c>
+      <c r="U12">
         <v>75.03</v>
-      </c>
-      <c r="U12">
-        <v>5.9</v>
       </c>
       <c r="V12">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>289.26</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>289.26</v>
@@ -3076,66 +3205,69 @@
         <v>289.26</v>
       </c>
       <c r="E13">
+        <v>289.26</v>
+      </c>
+      <c r="F13">
         <v>9.619999999999999</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>298.88</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>173.46</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.43</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9.58</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>62.42</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>245.89</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>52.99</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>117.8</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>22.73</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1.75</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>24.48</v>
-      </c>
-      <c r="R13">
-        <v>93.31999999999999</v>
       </c>
       <c r="S13">
         <v>93.31999999999999</v>
       </c>
       <c r="T13">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="U13">
         <v>90.64</v>
-      </c>
-      <c r="U13">
-        <v>7.14</v>
       </c>
       <c r="V13">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>263.18</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>263.18</v>
@@ -3144,46 +3276,46 @@
         <v>263.18</v>
       </c>
       <c r="E14">
+        <v>263.18</v>
+      </c>
+      <c r="F14">
         <v>12.37</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>275.54</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>166.32</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.37</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>6.93</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>45.19</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>218.8</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>56.74</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>61.38</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>22.49</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-0.82</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>20.16</v>
-      </c>
-      <c r="R14">
-        <v>41.21</v>
       </c>
       <c r="S14">
         <v>41.21</v>
@@ -3192,18 +3324,21 @@
         <v>41.21</v>
       </c>
       <c r="U14">
+        <v>41.21</v>
+      </c>
+      <c r="V14">
         <v>3.26</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3.25</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>263.75</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>263.75</v>
@@ -3212,46 +3347,46 @@
         <v>263.75</v>
       </c>
       <c r="E15">
+        <v>263.75</v>
+      </c>
+      <c r="F15">
         <v>13.68</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>277.43</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>186.84</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.37</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7.37</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>48.61</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>243.18</v>
-      </c>
-      <c r="M15">
-        <v>34.25</v>
       </c>
       <c r="N15">
         <v>34.25</v>
       </c>
       <c r="O15">
+        <v>34.25</v>
+      </c>
+      <c r="P15">
         <v>13.34</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-1.32</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>11.44</v>
-      </c>
-      <c r="R15">
-        <v>22.81</v>
       </c>
       <c r="S15">
         <v>22.81</v>
@@ -3260,18 +3395,21 @@
         <v>22.81</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>22.81</v>
       </c>
       <c r="V15">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>317.21</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>317.21</v>
@@ -3280,46 +3418,46 @@
         <v>317.21</v>
       </c>
       <c r="E16">
+        <v>317.21</v>
+      </c>
+      <c r="F16">
         <v>8.73</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>325.94</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>216.92</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.23</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.3</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>60.95</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>285.4</v>
-      </c>
-      <c r="M16">
-        <v>40.54</v>
       </c>
       <c r="N16">
         <v>40.54</v>
       </c>
       <c r="O16">
+        <v>40.54</v>
+      </c>
+      <c r="P16">
         <v>9.94</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-0.41</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>9.529999999999999</v>
-      </c>
-      <c r="R16">
-        <v>31.01</v>
       </c>
       <c r="S16">
         <v>31.01</v>
@@ -3328,18 +3466,21 @@
         <v>31.01</v>
       </c>
       <c r="U16">
-        <v>2.52</v>
+        <v>31.01</v>
       </c>
       <c r="V16">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>391.77</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>391.77</v>
@@ -3348,46 +3489,46 @@
         <v>391.77</v>
       </c>
       <c r="E17">
+        <v>391.77</v>
+      </c>
+      <c r="F17">
         <v>14.67</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>406.44</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>264.18</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.43</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8.59</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>70.08</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>343.28</v>
-      </c>
-      <c r="M17">
-        <v>63.16</v>
       </c>
       <c r="N17">
         <v>63.16</v>
       </c>
       <c r="O17">
+        <v>63.16</v>
+      </c>
+      <c r="P17">
         <v>10.42</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.24</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>11.66</v>
-      </c>
-      <c r="R17">
-        <v>51.5</v>
       </c>
       <c r="S17">
         <v>51.5</v>
@@ -3396,18 +3537,21 @@
         <v>51.5</v>
       </c>
       <c r="U17">
-        <v>4.27</v>
+        <v>51.5</v>
       </c>
       <c r="V17">
         <v>4.27</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>438.72</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>438.72</v>
@@ -3416,46 +3560,46 @@
         <v>438.72</v>
       </c>
       <c r="E18">
+        <v>438.72</v>
+      </c>
+      <c r="F18">
         <v>12.61</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>451.32</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>297.2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3.7</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>13.46</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>54.99</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>369.35</v>
-      </c>
-      <c r="M18">
-        <v>81.97</v>
       </c>
       <c r="N18">
         <v>81.97</v>
       </c>
       <c r="O18">
+        <v>81.97</v>
+      </c>
+      <c r="P18">
         <v>14.99</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-3.11</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>11.87</v>
-      </c>
-      <c r="R18">
-        <v>70.09999999999999</v>
       </c>
       <c r="S18">
         <v>70.09999999999999</v>
@@ -3464,18 +3608,21 @@
         <v>70.09999999999999</v>
       </c>
       <c r="U18">
-        <v>5.86</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="V18">
         <v>5.86</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>577.5</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>577.5</v>
@@ -3484,46 +3631,46 @@
         <v>577.5</v>
       </c>
       <c r="E19">
+        <v>577.5</v>
+      </c>
+      <c r="F19">
         <v>46.73</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>624.23</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>396.99</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.83</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>14.65</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>72.87</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>488.34</v>
-      </c>
-      <c r="M19">
-        <v>135.89</v>
       </c>
       <c r="N19">
         <v>135.89</v>
       </c>
       <c r="O19">
+        <v>135.89</v>
+      </c>
+      <c r="P19">
         <v>24.53</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-4.38</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>20.15</v>
-      </c>
-      <c r="R19">
-        <v>115.75</v>
       </c>
       <c r="S19">
         <v>115.75</v>
@@ -3532,18 +3679,21 @@
         <v>115.75</v>
       </c>
       <c r="U19">
-        <v>9.699999999999999</v>
+        <v>115.75</v>
       </c>
       <c r="V19">
         <v>9.699999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>813.89</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>813.89</v>
@@ -3552,46 +3702,46 @@
         <v>813.89</v>
       </c>
       <c r="E20">
+        <v>813.89</v>
+      </c>
+      <c r="F20">
         <v>7.04</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>820.9299999999999</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>553.36</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.26</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>19.58</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>109.68</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>686.89</v>
-      </c>
-      <c r="M20">
-        <v>134.05</v>
       </c>
       <c r="N20">
         <v>134.05</v>
       </c>
       <c r="O20">
+        <v>134.05</v>
+      </c>
+      <c r="P20">
         <v>29.66</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-8.32</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>21.34</v>
-      </c>
-      <c r="R20">
-        <v>112.71</v>
       </c>
       <c r="S20">
         <v>112.71</v>
@@ -3600,18 +3750,21 @@
         <v>112.71</v>
       </c>
       <c r="U20">
-        <v>9.529999999999999</v>
+        <v>112.71</v>
       </c>
       <c r="V20">
         <v>9.529999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>903.89</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>903.89</v>
@@ -3620,46 +3773,46 @@
         <v>903.89</v>
       </c>
       <c r="E21">
+        <v>903.89</v>
+      </c>
+      <c r="F21">
         <v>70.64</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>974.53</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>601.4400000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>8.119999999999999</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>24</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>122.79</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>756.34</v>
-      </c>
-      <c r="M21">
-        <v>218.19</v>
       </c>
       <c r="N21">
         <v>218.19</v>
       </c>
       <c r="O21">
+        <v>218.19</v>
+      </c>
+      <c r="P21">
         <v>48.56</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-3.83</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>44.73</v>
-      </c>
-      <c r="R21">
-        <v>173.46</v>
       </c>
       <c r="S21">
         <v>173.46</v>
@@ -3668,9 +3821,12 @@
         <v>173.46</v>
       </c>
       <c r="U21">
+        <v>173.46</v>
+      </c>
+      <c r="V21">
         <v>14.66</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>14.66</v>
       </c>
     </row>
@@ -3689,84 +3845,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>73.36</v>
@@ -3831,13 +3987,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>73.69</v>
@@ -3902,13 +4058,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>69.06999999999999</v>
@@ -3973,13 +4129,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>71.16</v>
@@ -4044,13 +4200,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>77.81</v>
@@ -4115,13 +4271,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>73.04000000000001</v>
@@ -4186,13 +4342,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>78.81</v>
@@ -4257,13 +4413,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>86.3</v>
@@ -4328,13 +4484,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>62.62</v>
@@ -4399,13 +4555,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>61.53</v>
@@ -4470,13 +4626,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>63.87</v>
@@ -4541,13 +4697,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>65</v>
@@ -4612,13 +4768,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>65.47</v>
@@ -4683,13 +4839,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>68.83</v>
@@ -4754,13 +4910,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>64.98999999999999</v>
@@ -4825,13 +4981,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>65.7</v>
@@ -4896,13 +5052,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>65.43000000000001</v>
@@ -4967,13 +5123,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>67.63</v>
@@ -5038,13 +5194,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>69.19</v>
@@ -5109,13 +5265,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>74.84999999999999</v>
@@ -5180,13 +5336,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
       </c>
       <c r="D22">
         <v>85.25</v>
@@ -5251,13 +5407,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>87.93000000000001</v>
@@ -5322,13 +5478,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>93.11</v>
@@ -5393,13 +5549,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <v>99.7</v>
@@ -5464,13 +5620,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D26">
         <v>97.98999999999999</v>
@@ -5535,13 +5691,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
       </c>
       <c r="D27">
         <v>100.97</v>
@@ -5606,13 +5762,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
       </c>
       <c r="D28">
         <v>105.95</v>
@@ -5677,13 +5833,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>103.8</v>
@@ -5748,13 +5904,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>108.01</v>
@@ -5819,13 +5975,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>120.96</v>
@@ -5890,13 +6046,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>121.54</v>
@@ -5961,13 +6117,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
       </c>
       <c r="D33">
         <v>133.53</v>
@@ -6032,13 +6188,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>154.01</v>
@@ -6103,13 +6259,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D35">
         <v>168.43</v>
@@ -6174,13 +6330,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D36">
         <v>176.85</v>
@@ -6245,13 +6401,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>201.95</v>
@@ -6316,13 +6472,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>217.27</v>
@@ -6387,13 +6543,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D39">
         <v>217.82</v>
@@ -6458,13 +6614,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <v>224.71</v>
@@ -6529,13 +6685,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D41">
         <v>228.79</v>
@@ -6600,13 +6756,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>243.1</v>
@@ -6671,13 +6827,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>207.3</v>
@@ -6742,13 +6898,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <v>208.86</v>
@@ -6813,13 +6969,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>225.99</v>
@@ -6884,13 +7040,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>235.09</v>
@@ -6960,783 +7116,822 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>109.24</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12.58</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7.06</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5.21</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.36</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.52</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.46</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.76</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.99</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.69</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.41</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.23</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>31.63</v>
+      </c>
+      <c r="D3">
+        <v>6.97</v>
+      </c>
+      <c r="E3">
+        <v>5.73</v>
+      </c>
+      <c r="F3">
+        <v>5.45</v>
+      </c>
+      <c r="G3">
+        <v>4.96</v>
+      </c>
+      <c r="H3">
+        <v>22.02</v>
+      </c>
+      <c r="I3">
+        <v>18.11</v>
+      </c>
+      <c r="J3">
+        <v>17.21</v>
+      </c>
+      <c r="K3">
+        <v>15.67</v>
+      </c>
+      <c r="L3">
+        <v>18.23</v>
+      </c>
+      <c r="M3">
+        <v>12.63</v>
+      </c>
+      <c r="N3">
+        <v>0.14</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>86.77</v>
+      </c>
+      <c r="D4">
+        <v>14.12</v>
+      </c>
+      <c r="E4">
+        <v>10.77</v>
+      </c>
+      <c r="F4">
+        <v>10.46</v>
+      </c>
+      <c r="G4">
+        <v>7.42</v>
+      </c>
+      <c r="H4">
+        <v>16.27</v>
+      </c>
+      <c r="I4">
+        <v>12.41</v>
+      </c>
+      <c r="J4">
+        <v>12.05</v>
+      </c>
+      <c r="K4">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="L4">
+        <v>7.17</v>
+      </c>
+      <c r="M4">
+        <v>5.56</v>
+      </c>
+      <c r="N4">
+        <v>0.03</v>
+      </c>
+      <c r="O4">
+        <v>16.22</v>
+      </c>
+      <c r="P4">
+        <v>11.17</v>
+      </c>
+      <c r="Q4">
+        <v>83.78</v>
+      </c>
+      <c r="R4">
+        <v>209.79</v>
+      </c>
+      <c r="S4">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>115.16</v>
+      </c>
+      <c r="D5">
+        <v>24.7</v>
+      </c>
+      <c r="E5">
+        <v>20.75</v>
+      </c>
+      <c r="F5">
+        <v>20.52</v>
+      </c>
+      <c r="G5">
+        <v>17.89</v>
+      </c>
+      <c r="H5">
+        <v>21.45</v>
+      </c>
+      <c r="I5">
+        <v>18.01</v>
+      </c>
+      <c r="J5">
+        <v>17.82</v>
+      </c>
+      <c r="K5">
+        <v>15.53</v>
+      </c>
+      <c r="L5">
+        <v>14.97</v>
+      </c>
+      <c r="M5">
+        <v>12.07</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>10.11</v>
+      </c>
+      <c r="P5">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>89.89</v>
+      </c>
+      <c r="R5">
+        <v>126.93</v>
+      </c>
+      <c r="S5">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>152.55</v>
+      </c>
+      <c r="D6">
+        <v>23.89</v>
+      </c>
+      <c r="E6">
+        <v>18.93</v>
+      </c>
+      <c r="F6">
+        <v>18.83</v>
+      </c>
+      <c r="G6">
+        <v>17.7</v>
+      </c>
+      <c r="H6">
+        <v>15.66</v>
+      </c>
+      <c r="I6">
+        <v>12.4</v>
+      </c>
+      <c r="J6">
+        <v>12.34</v>
+      </c>
+      <c r="K6">
+        <v>11.6</v>
+      </c>
+      <c r="L6">
+        <v>13.07</v>
+      </c>
+      <c r="M6">
+        <v>10.06</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>13.4</v>
+      </c>
+      <c r="P6">
+        <v>10.46</v>
+      </c>
+      <c r="Q6">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="R6">
+        <v>10.02</v>
+      </c>
+      <c r="S6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>156.12</v>
+      </c>
+      <c r="D7">
+        <v>14.12</v>
+      </c>
+      <c r="E7">
+        <v>7.55</v>
+      </c>
+      <c r="F7">
+        <v>7.41</v>
+      </c>
+      <c r="G7">
+        <v>5.35</v>
+      </c>
+      <c r="H7">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I7">
+        <v>4.83</v>
+      </c>
+      <c r="J7">
+        <v>4.74</v>
+      </c>
+      <c r="K7">
+        <v>3.42</v>
+      </c>
+      <c r="L7">
+        <v>3.7</v>
+      </c>
+      <c r="M7">
+        <v>2.86</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>44.02</v>
+      </c>
+      <c r="P7">
+        <v>19.75</v>
+      </c>
+      <c r="Q7">
+        <v>55.98</v>
+      </c>
+      <c r="R7">
+        <v>43.5</v>
+      </c>
+      <c r="S7">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>145.88</v>
+      </c>
+      <c r="D8">
+        <v>17.84</v>
+      </c>
+      <c r="E8">
+        <v>10.8</v>
+      </c>
+      <c r="F8">
+        <v>10.76</v>
+      </c>
+      <c r="G8">
+        <v>13.68</v>
+      </c>
+      <c r="H8">
+        <v>12.23</v>
+      </c>
+      <c r="I8">
+        <v>7.4</v>
+      </c>
+      <c r="J8">
+        <v>7.37</v>
+      </c>
+      <c r="K8">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="L8">
+        <v>8.81</v>
+      </c>
+      <c r="M8">
+        <v>7.28</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>17.64</v>
+      </c>
+      <c r="P8">
+        <v>11.64</v>
+      </c>
+      <c r="Q8">
+        <v>82.36</v>
+      </c>
+      <c r="R8">
+        <v>89.31</v>
+      </c>
+      <c r="S8">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>156.57</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>31.63</v>
-      </c>
-      <c r="C3">
-        <v>6.97</v>
-      </c>
-      <c r="D3">
-        <v>5.73</v>
-      </c>
-      <c r="E3">
-        <v>5.45</v>
-      </c>
-      <c r="F3">
-        <v>4.96</v>
-      </c>
-      <c r="G3">
-        <v>22.02</v>
-      </c>
-      <c r="H3">
-        <v>18.11</v>
-      </c>
-      <c r="I3">
-        <v>17.21</v>
-      </c>
-      <c r="J3">
-        <v>15.67</v>
-      </c>
-      <c r="K3">
-        <v>18.23</v>
-      </c>
-      <c r="L3">
-        <v>12.63</v>
-      </c>
-      <c r="M3">
-        <v>0.14</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>86.77</v>
-      </c>
-      <c r="C4">
-        <v>14.12</v>
-      </c>
-      <c r="D4">
-        <v>10.77</v>
-      </c>
-      <c r="E4">
-        <v>10.46</v>
-      </c>
-      <c r="F4">
-        <v>7.42</v>
-      </c>
-      <c r="G4">
-        <v>16.27</v>
-      </c>
-      <c r="H4">
-        <v>12.41</v>
-      </c>
-      <c r="I4">
-        <v>12.05</v>
-      </c>
-      <c r="J4">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="K4">
-        <v>7.17</v>
-      </c>
-      <c r="L4">
-        <v>5.56</v>
-      </c>
-      <c r="M4">
-        <v>0.03</v>
-      </c>
-      <c r="N4">
-        <v>16.22</v>
-      </c>
-      <c r="O4">
-        <v>11.17</v>
-      </c>
-      <c r="P4">
-        <v>83.78</v>
-      </c>
-      <c r="Q4">
-        <v>209.79</v>
-      </c>
-      <c r="R4">
-        <v>10.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>115.16</v>
-      </c>
-      <c r="C5">
-        <v>24.7</v>
-      </c>
-      <c r="D5">
-        <v>20.75</v>
-      </c>
-      <c r="E5">
-        <v>20.52</v>
-      </c>
-      <c r="F5">
-        <v>17.89</v>
-      </c>
-      <c r="G5">
-        <v>21.45</v>
-      </c>
-      <c r="H5">
-        <v>18.01</v>
-      </c>
-      <c r="I5">
-        <v>17.82</v>
-      </c>
-      <c r="J5">
-        <v>15.53</v>
-      </c>
-      <c r="K5">
-        <v>14.97</v>
-      </c>
-      <c r="L5">
-        <v>12.07</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>10.11</v>
-      </c>
-      <c r="O5">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="P5">
-        <v>89.89</v>
-      </c>
-      <c r="Q5">
-        <v>126.93</v>
-      </c>
-      <c r="R5">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>152.55</v>
-      </c>
-      <c r="C6">
-        <v>23.89</v>
-      </c>
-      <c r="D6">
-        <v>18.93</v>
-      </c>
-      <c r="E6">
-        <v>18.83</v>
-      </c>
-      <c r="F6">
-        <v>17.7</v>
-      </c>
-      <c r="G6">
-        <v>15.66</v>
-      </c>
-      <c r="H6">
-        <v>12.4</v>
-      </c>
-      <c r="I6">
-        <v>12.34</v>
-      </c>
-      <c r="J6">
-        <v>11.6</v>
-      </c>
-      <c r="K6">
-        <v>13.07</v>
-      </c>
-      <c r="L6">
-        <v>10.06</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>13.4</v>
-      </c>
-      <c r="O6">
-        <v>10.46</v>
-      </c>
-      <c r="P6">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>10.02</v>
-      </c>
-      <c r="R6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>156.12</v>
-      </c>
-      <c r="C7">
-        <v>14.12</v>
-      </c>
-      <c r="D7">
-        <v>7.55</v>
-      </c>
-      <c r="E7">
-        <v>7.41</v>
-      </c>
-      <c r="F7">
-        <v>5.35</v>
-      </c>
-      <c r="G7">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="H7">
-        <v>4.83</v>
-      </c>
-      <c r="I7">
-        <v>4.74</v>
-      </c>
-      <c r="J7">
-        <v>3.42</v>
-      </c>
-      <c r="K7">
-        <v>3.7</v>
-      </c>
-      <c r="L7">
-        <v>2.86</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>44.02</v>
-      </c>
-      <c r="O7">
-        <v>19.75</v>
-      </c>
-      <c r="P7">
-        <v>55.98</v>
-      </c>
-      <c r="Q7">
-        <v>43.5</v>
-      </c>
-      <c r="R7">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>145.88</v>
-      </c>
-      <c r="C8">
-        <v>17.84</v>
-      </c>
-      <c r="D8">
-        <v>10.8</v>
-      </c>
-      <c r="E8">
-        <v>10.76</v>
-      </c>
-      <c r="F8">
-        <v>13.68</v>
-      </c>
-      <c r="G8">
-        <v>12.23</v>
-      </c>
-      <c r="H8">
-        <v>7.4</v>
-      </c>
-      <c r="I8">
-        <v>7.37</v>
-      </c>
-      <c r="J8">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="K8">
-        <v>8.81</v>
-      </c>
-      <c r="L8">
-        <v>7.28</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>17.64</v>
-      </c>
-      <c r="O8">
-        <v>11.64</v>
-      </c>
-      <c r="P8">
-        <v>82.36</v>
-      </c>
-      <c r="Q8">
-        <v>89.31</v>
-      </c>
-      <c r="R8">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>156.57</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>6.8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6.46</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.28</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.94</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.34</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.12</v>
-      </c>
-      <c r="J9">
-        <v>3.37</v>
       </c>
       <c r="K9">
         <v>3.37</v>
       </c>
       <c r="L9">
+        <v>3.37</v>
+      </c>
+      <c r="M9">
         <v>2.54</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>68.58</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>29.02</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>31.42</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>137.4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>183.92</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>29.92</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>24.91</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>24.69</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16.49</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>16.26</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13.54</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13.42</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8.960000000000001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>11.38</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8.550000000000001</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>142.95</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>109.62</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-42.95</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>226.14</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>6.07</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>214.27</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>47.02</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>43.23</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>43</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>29.03</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>21.94</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>20.17</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>20.06</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>13.54</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>19.43</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>14.32</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>71.11</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>62.88</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>28.89</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>428.47</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7.24</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>22.97</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5.44</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4.91</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7.98</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5.92</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>23.68</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>21.37</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>34.72</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25.77</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>42.85</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>25.54</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>99.44</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>91.26000000000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1007.68</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>14.62</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>22.93</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4.99</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4.23</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9.34</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7.19</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>21.77</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18.46</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>40.72</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>31.33</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>45.69</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>36.28</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>55.28</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>49.99</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>44.72</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>938.87</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>21.37</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5.2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4.64</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4.98</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.35</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>24.33</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>21.69</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>23.32</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15.66</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>18.7</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>15.14</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.01</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -7744,55 +7939,58 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>667.25</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>10.42</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>21.41</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3.41</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.81</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.78</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.85</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15.91</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>13.12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>12.98</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8.640000000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>9.23</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7.38</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.01</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -7800,164 +7998,173 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>501.71</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>11.95</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>25.74</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.9</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3.31</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.29</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.52</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15.15</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12.85</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>12.78</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9.77</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>11.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>9.199999999999999</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.01</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>27.56</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22.31</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>72.44</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>559.22</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>11.63</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>32.76</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6.03</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5.32</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.28</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4.31</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>18.42</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>16.22</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>16.12</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>13.14</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>18.74</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>14.14</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.01</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>42.04</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>36.03</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>57.96</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>778.15</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>10.78</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>36.68</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>8.289999999999999</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7.16</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6.85</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5.86</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>22.59</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>19.52</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18.68</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15.97</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>20.45</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>15.13</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -7968,52 +8175,55 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>1345.96</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>13.58</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>48.81</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>13.05</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11.81</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11.49</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9.779999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>26.73</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>24.19</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>23.53</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>20.04</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>32.7</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>24.35</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -8024,121 +8234,130 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>3754</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>24.32</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>68.79000000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>13.35</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>11.69</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>11.33</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9.529999999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>19.4</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>16.99</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>16.47</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>13.84</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>28.88</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>19.97</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.01</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>68.22</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>58.12</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>31.78</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2921.72</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>18.5</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>76.40000000000001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>21.16</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>19.13</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18.44</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>14.66</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>27.69</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>25.03</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>24.13</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>19.19</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>35.92</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>21.51</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.12</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>46.37</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>40.74</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>53.63</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>6436.09</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>25.71</v>
       </c>
     </row>
